--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC57-TORNILLOS ACUTEC 7.0.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC57-TORNILLOS ACUTEC 7.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E8CEA9-F943-4CBE-A533-B666C2998D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="10" r:id="rId1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -483,12 +484,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-[$$-300A]\ * #,##0.00_ ;_-[$$-300A]\ * \-#,##0.00\ ;_-[$$-300A]\ * &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -931,44 +932,44 @@
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1005,7 +1006,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,11 +1056,11 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="168" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1191,45 +1192,48 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda [0] 2" xfId="11"/>
-    <cellStyle name="Moneda [0] 2 2" xfId="15"/>
-    <cellStyle name="Moneda [0] 2 3" xfId="26"/>
-    <cellStyle name="Moneda [0] 3" xfId="16"/>
-    <cellStyle name="Moneda [0] 4" xfId="32"/>
-    <cellStyle name="Moneda 10" xfId="21"/>
-    <cellStyle name="Moneda 11" xfId="31"/>
-    <cellStyle name="Moneda 12" xfId="30"/>
-    <cellStyle name="Moneda 13" xfId="29"/>
-    <cellStyle name="Moneda 14" xfId="28"/>
-    <cellStyle name="Moneda 15" xfId="27"/>
-    <cellStyle name="Moneda 16" xfId="33"/>
-    <cellStyle name="Moneda 17" xfId="34"/>
-    <cellStyle name="Moneda 18" xfId="35"/>
-    <cellStyle name="Moneda 19" xfId="36"/>
-    <cellStyle name="Moneda 2" xfId="6"/>
-    <cellStyle name="Moneda 2 2" xfId="10"/>
-    <cellStyle name="Moneda 2 2 2" xfId="25"/>
-    <cellStyle name="Moneda 3" xfId="13"/>
-    <cellStyle name="Moneda 3 2" xfId="4"/>
-    <cellStyle name="Moneda 3 2 2" xfId="8"/>
-    <cellStyle name="Moneda 3 2 3" xfId="12"/>
-    <cellStyle name="Moneda 3 2 3 2" xfId="17"/>
-    <cellStyle name="Moneda 4" xfId="14"/>
-    <cellStyle name="Moneda 5" xfId="18"/>
-    <cellStyle name="Moneda 6" xfId="20"/>
-    <cellStyle name="Moneda 7" xfId="23"/>
-    <cellStyle name="Moneda 8" xfId="9"/>
-    <cellStyle name="Moneda 9" xfId="22"/>
+    <cellStyle name="Moneda [0] 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moneda [0] 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Moneda [0] 2 3" xfId="26" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Moneda [0] 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Moneda [0] 4" xfId="32" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Moneda 10" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Moneda 11" xfId="31" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Moneda 12" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Moneda 13" xfId="29" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Moneda 14" xfId="28" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Moneda 15" xfId="27" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Moneda 16" xfId="33" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Moneda 17" xfId="34" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Moneda 18" xfId="35" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Moneda 19" xfId="36" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Moneda 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Moneda 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Moneda 2 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Moneda 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Moneda 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Moneda 3 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Moneda 3 2 3" xfId="12" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Moneda 3 2 3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Moneda 4" xfId="14" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Moneda 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Moneda 6" xfId="20" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Moneda 7" xfId="23" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Moneda 8" xfId="9" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Moneda 9" xfId="22" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="7"/>
-    <cellStyle name="Normal 3 3" xfId="24"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="常规 4" xfId="19"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Normal 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Normal 3 3" xfId="24" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="常规 4" xfId="19" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1589,33 +1593,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="20.149999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="1"/>
+    <col min="4" max="4" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A1" s="4"/>
       <c r="B1" s="3"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="75" t="s">
@@ -1626,7 +1630,7 @@
       </c>
       <c r="E2" s="78"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A3" s="40"/>
       <c r="B3" s="41"/>
       <c r="C3" s="76"/>
@@ -1635,7 +1639,7 @@
       </c>
       <c r="E3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A4" s="40"/>
       <c r="B4" s="41"/>
       <c r="C4" s="79" t="s">
@@ -1646,7 +1650,7 @@
       </c>
       <c r="E4" s="82"/>
     </row>
-    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A5" s="44"/>
       <c r="B5" s="45"/>
       <c r="C5" s="80"/>
@@ -1655,14 +1659,14 @@
       </c>
       <c r="E5" s="84"/>
     </row>
-    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="46"/>
       <c r="B6" s="46"/>
       <c r="C6" s="46"/>
       <c r="D6" s="46"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="24" t="s">
         <v>42</v>
       </c>
@@ -1677,14 +1681,14 @@
         <v>20230300236</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="24" t="s">
         <v>44</v>
       </c>
@@ -1732,7 +1736,7 @@
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:10" customFormat="1" ht="18">
+    <row r="13" spans="1:10" customFormat="1" ht="31.5">
       <c r="A13" s="24" t="s">
         <v>46</v>
       </c>
@@ -1752,7 +1756,7 @@
       <c r="I13" s="70"/>
       <c r="J13" s="70"/>
     </row>
-    <row r="14" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1761,7 +1765,7 @@
       <c r="I14" s="70"/>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24" t="s">
         <v>48</v>
       </c>
@@ -1778,7 +1782,7 @@
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -1789,7 +1793,7 @@
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="24" t="s">
         <v>50</v>
       </c>
@@ -1804,7 +1808,7 @@
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1815,7 +1819,7 @@
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="24" t="s">
         <v>51</v>
       </c>
@@ -1830,7 +1834,7 @@
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
     </row>
-    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:10" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="1"/>
@@ -1845,7 +1849,7 @@
       <c r="A21" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="85" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -1870,7 +1874,7 @@
       <c r="A22" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="51" t="s">
@@ -1890,11 +1894,11 @@
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="51" t="s">
@@ -1912,11 +1916,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="51" t="s">
@@ -1934,11 +1938,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="51" t="s">
@@ -1956,11 +1960,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="51" t="s">
@@ -1978,11 +1982,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="55" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="51" t="s">
@@ -2000,11 +2004,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="51" t="s">
@@ -2022,11 +2026,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C29" s="51" t="s">
@@ -2044,11 +2048,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="55" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="51" t="s">
@@ -2066,11 +2070,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="55" t="s">
         <v>102</v>
       </c>
       <c r="C31" s="51" t="s">
@@ -2088,11 +2092,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="20.149999999999999" customHeight="1">
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="55" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="51" t="s">
@@ -2110,11 +2114,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="55" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="51" t="s">
@@ -2132,11 +2136,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="51" t="s">
@@ -2154,11 +2158,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="55" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="51" t="s">
@@ -2176,11 +2180,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="55" t="s">
         <v>61</v>
       </c>
       <c r="C36" s="51" t="s">
@@ -2198,11 +2202,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="55" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="51" t="s">
@@ -2220,11 +2224,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="50" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="55" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="51" t="s">
@@ -2242,11 +2246,11 @@
         <v>440</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="55" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="51" t="s">
@@ -2264,9 +2268,9 @@
         <v>440</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="50"/>
-      <c r="B40" s="5"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="51"/>
       <c r="D40" s="53">
         <v>34</v>
@@ -2275,7 +2279,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="10"/>
     </row>
-    <row r="41" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="C41" s="14"/>
       <c r="D41" s="66"/>
       <c r="E41" s="66"/>
@@ -2287,7 +2291,7 @@
         <v>7480</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -2301,7 +2305,7 @@
         <v>897.6</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="C43" s="12"/>
       <c r="D43" s="64"/>
       <c r="E43" s="64"/>
@@ -2313,7 +2317,7 @@
         <v>8377.6</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="71"/>
       <c r="B44" s="71"/>
       <c r="C44" s="12"/>
@@ -2322,14 +2326,14 @@
       <c r="F44" s="13"/>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="11"/>
     </row>
-    <row r="46" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="72" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2343,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="69" t="s">
         <v>113</v>
       </c>
@@ -2351,7 +2355,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="5">
         <v>1</v>
       </c>
@@ -2363,7 +2367,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
     </row>
-    <row r="49" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="5">
         <v>1</v>
       </c>
@@ -2373,7 +2377,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="5">
         <v>1</v>
       </c>
@@ -2383,7 +2387,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="5">
         <v>2</v>
       </c>
@@ -2393,7 +2397,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="5">
         <v>1</v>
       </c>
@@ -2403,7 +2407,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="11"/>
     </row>
-    <row r="53" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="5">
         <v>2</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="11"/>
     </row>
-    <row r="54" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="5">
         <v>1</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="11"/>
     </row>
-    <row r="55" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="5">
         <v>7</v>
       </c>
@@ -2433,7 +2437,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="11"/>
     </row>
-    <row r="56" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="5">
         <v>1</v>
       </c>
@@ -2443,7 +2447,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="11"/>
     </row>
-    <row r="57" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="5">
         <v>1</v>
       </c>
@@ -2453,7 +2457,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="11"/>
     </row>
-    <row r="58" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="5">
         <v>1</v>
       </c>
@@ -2463,7 +2467,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="11"/>
     </row>
-    <row r="59" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="5">
         <v>1</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="11"/>
     </row>
-    <row r="60" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="54">
         <v>21</v>
       </c>
@@ -2481,7 +2485,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="62" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="68" t="s">
         <v>103</v>
@@ -2490,40 +2494,40 @@
         <v>104</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="58"/>
       <c r="C63" s="59" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="20.149999999999999" customHeight="1">
+    <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="58"/>
       <c r="C64" s="59" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="65" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="58"/>
       <c r="C65" s="59" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="66" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="58"/>
       <c r="C66" s="59" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="67" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="58"/>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="68" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="4"/>
       <c r="B68" s="60" t="s">
         <v>92</v>
@@ -2532,101 +2536,101 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="69" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="60"/>
       <c r="C69" s="61" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="70" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="60"/>
       <c r="C70" s="61" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="71" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="62"/>
       <c r="C71" s="63"/>
     </row>
-    <row r="72" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="72" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="62"/>
       <c r="C72" s="63"/>
     </row>
-    <row r="73" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="73" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B73"/>
       <c r="C73" s="7"/>
     </row>
-    <row r="74" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="74" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
     </row>
-    <row r="75" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="75" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
     </row>
-    <row r="76" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="76" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B76" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="57"/>
     </row>
-    <row r="77" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="77" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B77"/>
       <c r="C77"/>
     </row>
-    <row r="78" spans="1:3" ht="20.149999999999999" customHeight="1">
+    <row r="78" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="B78"/>
       <c r="C78"/>
     </row>
-    <row r="79" spans="1:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="79" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B79" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C79" s="57"/>
     </row>
-    <row r="82" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="82" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B82"/>
       <c r="C82"/>
     </row>
-    <row r="83" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="83" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B83"/>
       <c r="C83"/>
     </row>
-    <row r="84" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="84" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B84" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C84" s="57"/>
     </row>
-    <row r="85" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="85" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B85"/>
       <c r="C85"/>
     </row>
-    <row r="86" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="86" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B86"/>
       <c r="C86"/>
     </row>
-    <row r="87" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="87" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B87" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C87" s="57"/>
     </row>
-    <row r="88" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="88" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B88"/>
       <c r="C88"/>
     </row>
-    <row r="89" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="89" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B89"/>
       <c r="C89"/>
     </row>
-    <row r="90" spans="2:3" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="90" spans="2:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B90" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C90" s="57"/>
     </row>
-    <row r="91" spans="2:3" ht="20.149999999999999" customHeight="1">
+    <row r="91" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B91"/>
       <c r="C91"/>
     </row>
